--- a/output/patologia_previa.xlsx
+++ b/output/patologia_previa.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -44,7 +44,22 @@
     <t>hipertensao_arterial</t>
   </si>
   <si>
+    <t>fib_auricular</t>
+  </si>
+  <si>
+    <t>pneumonia_comunidade</t>
+  </si>
+  <si>
+    <t>doenca_depressiva</t>
+  </si>
+  <si>
+    <t>hipotiroidismo</t>
+  </si>
+  <si>
     <t>nenhuma</t>
+  </si>
+  <si>
+    <t>tabagismo</t>
   </si>
   <si>
     <t>dislipidemia</t>
@@ -53,199 +68,19 @@
     <t>alcoolismo</t>
   </si>
   <si>
+    <t>doenca_cerebrovascular</t>
+  </si>
+  <si>
+    <t>doenca_ansiedade</t>
+  </si>
+  <si>
+    <t>insuf_venosa_periferica</t>
+  </si>
+  <si>
     <t>obesidade</t>
   </si>
   <si>
     <t>SAOS</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>138</t>
   </si>
 </sst>
 </file>
@@ -297,56 +132,79 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>15</v>
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>
@@ -358,7 +216,7 @@
         <v>1.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -393,16 +251,37 @@
       <c r="P2" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>16</v>
+      <c r="A3" t="n">
+        <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3" t="n">
         <v>1.0</v>
@@ -411,7 +290,7 @@
         <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -443,13 +322,34 @@
       <c r="P3" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>17</v>
+      <c r="A4" t="n">
+        <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C4" t="n">
         <v>0.0</v>
@@ -461,10 +361,10 @@
         <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -493,13 +393,34 @@
       <c r="P4" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>18</v>
+      <c r="A5" t="n">
+        <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
@@ -514,10 +435,10 @@
         <v>0.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
@@ -543,19 +464,40 @@
       <c r="P5" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>19</v>
+      <c r="A6" t="n">
+        <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" t="n">
         <v>0.0</v>
@@ -567,7 +509,7 @@
         <v>0.0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I6" t="n">
         <v>1.0</v>
@@ -576,7 +518,7 @@
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L6" t="n">
         <v>0.0</v>
@@ -593,43 +535,64 @@
       <c r="P6" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>20</v>
+      <c r="A7" t="n">
+        <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E7" t="n">
         <v>1.0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K7" t="n">
         <v>1.0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M7" t="n">
         <v>0.0</v>
@@ -643,13 +606,34 @@
       <c r="P7" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>21</v>
+      <c r="A8" t="n">
+        <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
@@ -682,10 +666,10 @@
         <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O8" t="n">
         <v>0.0</v>
@@ -693,13 +677,34 @@
       <c r="P8" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>22</v>
+      <c r="A9" t="n">
+        <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
@@ -729,7 +734,7 @@
         <v>0.0</v>
       </c>
       <c r="L9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M9" t="n">
         <v>0.0</v>
@@ -738,18 +743,39 @@
         <v>0.0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P9" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>23</v>
+      <c r="A10" t="n">
+        <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="C10" t="n">
         <v>0.0</v>
@@ -758,25 +784,25 @@
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
@@ -791,15 +817,36 @@
         <v>0.0</v>
       </c>
       <c r="P10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W10" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>24</v>
+      <c r="A11" t="n">
+        <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="C11" t="n">
         <v>0.0</v>
@@ -832,7 +879,7 @@
         <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
@@ -843,13 +890,34 @@
       <c r="P11" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>25</v>
+      <c r="A12" t="n">
+        <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="C12" t="n">
         <v>0.0</v>
@@ -885,7 +953,7 @@
         <v>0.0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O12" t="n">
         <v>0.0</v>
@@ -893,13 +961,34 @@
       <c r="P12" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>26</v>
+      <c r="A13" t="n">
+        <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="C13" t="n">
         <v>0.0</v>
@@ -923,10 +1012,10 @@
         <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
@@ -935,21 +1024,42 @@
         <v>0.0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O13" t="n">
         <v>0.0</v>
       </c>
       <c r="P13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>27</v>
+      <c r="A14" t="n">
+        <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -979,7 +1089,7 @@
         <v>0.0</v>
       </c>
       <c r="L14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M14" t="n">
         <v>0.0</v>
@@ -988,18 +1098,39 @@
         <v>0.0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P14" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>28</v>
+      <c r="A15" t="n">
+        <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="C15" t="n">
         <v>0.0</v>
@@ -1029,7 +1160,7 @@
         <v>0.0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M15" t="n">
         <v>0.0</v>
@@ -1038,18 +1169,39 @@
         <v>0.0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P15" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>29</v>
+      <c r="A16" t="n">
+        <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="C16" t="n">
         <v>0.0</v>
@@ -1058,10 +1210,10 @@
         <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
@@ -1073,10 +1225,10 @@
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
@@ -1091,15 +1243,36 @@
         <v>0.0</v>
       </c>
       <c r="P16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W16" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>30</v>
+      <c r="A17" t="n">
+        <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
@@ -1123,16 +1296,16 @@
         <v>0.0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -1143,13 +1316,34 @@
       <c r="P17" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>31</v>
+      <c r="A18" t="n">
+        <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="C18" t="n">
         <v>0.0</v>
@@ -1179,7 +1373,7 @@
         <v>0.0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M18" t="n">
         <v>0.0</v>
@@ -1188,18 +1382,39 @@
         <v>0.0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P18" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>32</v>
+      <c r="A19" t="n">
+        <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="C19" t="n">
         <v>0.0</v>
@@ -1235,7 +1450,7 @@
         <v>0.0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O19" t="n">
         <v>0.0</v>
@@ -1243,25 +1458,46 @@
       <c r="P19" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>33</v>
+      <c r="A20" t="n">
+        <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="C20" t="n">
         <v>0.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>
@@ -1282,7 +1518,7 @@
         <v>0.0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N20" t="n">
         <v>0.0</v>
@@ -1291,27 +1527,48 @@
         <v>0.0</v>
       </c>
       <c r="P20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>34</v>
+      <c r="A21" t="n">
+        <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G21" t="n">
         <v>0.0</v>
@@ -1320,10 +1577,10 @@
         <v>0.0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K21" t="n">
         <v>0.0</v>
@@ -1341,15 +1598,36 @@
         <v>0.0</v>
       </c>
       <c r="P21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>35</v>
+      <c r="A22" t="n">
+        <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c r="C22" t="n">
         <v>0.0</v>
@@ -1373,16 +1651,16 @@
         <v>0.0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
@@ -1393,34 +1671,55 @@
       <c r="P22" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>36</v>
+      <c r="A23" t="n">
+        <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J23" t="n">
         <v>0.0</v>
@@ -1435,7 +1734,7 @@
         <v>0.0</v>
       </c>
       <c r="N23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O23" t="n">
         <v>0.0</v>
@@ -1443,13 +1742,34 @@
       <c r="P23" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>37</v>
+      <c r="A24" t="n">
+        <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="C24" t="n">
         <v>0.0</v>
@@ -1482,7 +1802,7 @@
         <v>0.0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
@@ -1493,13 +1813,34 @@
       <c r="P24" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>38</v>
+      <c r="A25" t="n">
+        <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="C25" t="n">
         <v>0.0</v>
@@ -1529,7 +1870,7 @@
         <v>0.0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M25" t="n">
         <v>0.0</v>
@@ -1538,18 +1879,39 @@
         <v>0.0</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P25" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>39</v>
+      <c r="A26" t="n">
+        <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="C26" t="n">
         <v>0.0</v>
@@ -1558,10 +1920,10 @@
         <v>0.0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G26" t="n">
         <v>0.0</v>
@@ -1591,15 +1953,36 @@
         <v>0.0</v>
       </c>
       <c r="P26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W26" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>40</v>
+      <c r="A27" t="n">
+        <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
       <c r="C27" t="n">
         <v>0.0</v>
@@ -1643,13 +2026,34 @@
       <c r="P27" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>41</v>
+      <c r="A28" t="n">
+        <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="C28" t="n">
         <v>0.0</v>
@@ -1679,7 +2083,7 @@
         <v>0.0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M28" t="n">
         <v>0.0</v>
@@ -1688,24 +2092,45 @@
         <v>0.0</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P28" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>42</v>
+      <c r="A29" t="n">
+        <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>28.0</v>
+        <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E29" t="n">
         <v>0.0</v>
@@ -1743,13 +2168,34 @@
       <c r="P29" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>43</v>
+      <c r="A30" t="n">
+        <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>29.0</v>
+        <v>0.0</v>
       </c>
       <c r="C30" t="n">
         <v>0.0</v>
@@ -1779,7 +2225,7 @@
         <v>0.0</v>
       </c>
       <c r="L30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M30" t="n">
         <v>0.0</v>
@@ -1788,18 +2234,39 @@
         <v>0.0</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P30" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>44</v>
+      <c r="A31" t="n">
+        <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="C31" t="n">
         <v>0.0</v>
@@ -1829,7 +2296,7 @@
         <v>0.0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M31" t="n">
         <v>0.0</v>
@@ -1838,24 +2305,45 @@
         <v>0.0</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P31" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>45</v>
+      <c r="A32" t="n">
+        <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>31.0</v>
+        <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E32" t="n">
         <v>0.0</v>
@@ -1885,21 +2373,42 @@
         <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O32" t="n">
         <v>0.0</v>
       </c>
       <c r="P32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W32" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>46</v>
+      <c r="A33" t="n">
+        <v>32.0</v>
       </c>
       <c r="B33" t="n">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="C33" t="n">
         <v>0.0</v>
@@ -1923,10 +2432,10 @@
         <v>0.0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L33" t="n">
         <v>0.0</v>
@@ -1943,13 +2452,34 @@
       <c r="P33" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>47</v>
+      <c r="A34" t="n">
+        <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>33.0</v>
+        <v>0.0</v>
       </c>
       <c r="C34" t="n">
         <v>0.0</v>
@@ -1993,13 +2523,34 @@
       <c r="P34" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>48</v>
+      <c r="A35" t="n">
+        <v>34.0</v>
       </c>
       <c r="B35" t="n">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
       <c r="C35" t="n">
         <v>0.0</v>
@@ -2029,7 +2580,7 @@
         <v>0.0</v>
       </c>
       <c r="L35" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M35" t="n">
         <v>0.0</v>
@@ -2038,18 +2589,39 @@
         <v>0.0</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P35" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>49</v>
+      <c r="A36" t="n">
+        <v>35.0</v>
       </c>
       <c r="B36" t="n">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c r="C36" t="n">
         <v>0.0</v>
@@ -2082,24 +2654,45 @@
         <v>0.0</v>
       </c>
       <c r="M36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
       </c>
       <c r="O36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P36" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>50</v>
+      <c r="A37" t="n">
+        <v>36.0</v>
       </c>
       <c r="B37" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="C37" t="n">
         <v>0.0</v>
@@ -2138,18 +2731,39 @@
         <v>0.0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P37" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>51</v>
+      <c r="A38" t="n">
+        <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
       <c r="C38" t="n">
         <v>0.0</v>
@@ -2158,10 +2772,10 @@
         <v>0.0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G38" t="n">
         <v>0.0</v>
@@ -2173,10 +2787,10 @@
         <v>0.0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L38" t="n">
         <v>0.0</v>
@@ -2191,18 +2805,39 @@
         <v>0.0</v>
       </c>
       <c r="P38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W38" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s">
-        <v>52</v>
+      <c r="A39" t="n">
+        <v>38.0</v>
       </c>
       <c r="B39" t="n">
-        <v>38.0</v>
+        <v>0.0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D39" t="n">
         <v>1.0</v>
@@ -2211,45 +2846,66 @@
         <v>1.0</v>
       </c>
       <c r="F39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n">
         <v>0.0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L39" t="n">
         <v>0.0</v>
       </c>
       <c r="M39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N39" t="n">
         <v>0.0</v>
       </c>
       <c r="O39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P39" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>53</v>
+      <c r="A40" t="n">
+        <v>39.0</v>
       </c>
       <c r="B40" t="n">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c r="C40" t="n">
         <v>0.0</v>
@@ -2285,7 +2941,7 @@
         <v>0.0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O40" t="n">
         <v>0.0</v>
@@ -2293,13 +2949,34 @@
       <c r="P40" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>54</v>
+      <c r="A41" t="n">
+        <v>40.0</v>
       </c>
       <c r="B41" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="C41" t="n">
         <v>0.0</v>
@@ -2329,7 +3006,7 @@
         <v>0.0</v>
       </c>
       <c r="L41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M41" t="n">
         <v>0.0</v>
@@ -2338,18 +3015,39 @@
         <v>0.0</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P41" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="s">
-        <v>55</v>
+      <c r="A42" t="n">
+        <v>41.0</v>
       </c>
       <c r="B42" t="n">
-        <v>41.0</v>
+        <v>0.0</v>
       </c>
       <c r="C42" t="n">
         <v>0.0</v>
@@ -2393,25 +3091,46 @@
       <c r="P42" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" t="s">
-        <v>56</v>
+      <c r="A43" t="n">
+        <v>42.0</v>
       </c>
       <c r="B43" t="n">
-        <v>42.0</v>
+        <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G43" t="n">
         <v>0.0</v>
@@ -2432,24 +3151,45 @@
         <v>0.0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N43" t="n">
         <v>0.0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P43" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
-        <v>57</v>
+      <c r="A44" t="n">
+        <v>43.0</v>
       </c>
       <c r="B44" t="n">
-        <v>43.0</v>
+        <v>0.0</v>
       </c>
       <c r="C44" t="n">
         <v>0.0</v>
@@ -2482,7 +3222,7 @@
         <v>0.0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N44" t="n">
         <v>0.0</v>
@@ -2493,13 +3233,34 @@
       <c r="P44" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" t="s">
-        <v>58</v>
+      <c r="A45" t="n">
+        <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
       <c r="C45" t="n">
         <v>0.0</v>
@@ -2529,7 +3290,7 @@
         <v>0.0</v>
       </c>
       <c r="L45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M45" t="n">
         <v>0.0</v>
@@ -2538,18 +3299,39 @@
         <v>0.0</v>
       </c>
       <c r="O45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P45" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" t="s">
-        <v>59</v>
+      <c r="A46" t="n">
+        <v>45.0</v>
       </c>
       <c r="B46" t="n">
-        <v>45.0</v>
+        <v>0.0</v>
       </c>
       <c r="C46" t="n">
         <v>0.0</v>
@@ -2593,13 +3375,34 @@
       <c r="P46" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="s">
-        <v>60</v>
+      <c r="A47" t="n">
+        <v>46.0</v>
       </c>
       <c r="B47" t="n">
-        <v>46.0</v>
+        <v>0.0</v>
       </c>
       <c r="C47" t="n">
         <v>0.0</v>
@@ -2632,7 +3435,7 @@
         <v>0.0</v>
       </c>
       <c r="M47" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N47" t="n">
         <v>0.0</v>
@@ -2643,40 +3446,61 @@
       <c r="P47" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" t="s">
-        <v>61</v>
+      <c r="A48" t="n">
+        <v>47.0</v>
       </c>
       <c r="B48" t="n">
-        <v>47.0</v>
+        <v>1.0</v>
       </c>
       <c r="C48" t="n">
         <v>1.0</v>
       </c>
       <c r="D48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n">
         <v>0.0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L48" t="n">
         <v>0.0</v>
@@ -2693,19 +3517,40 @@
       <c r="P48" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>62</v>
+      <c r="A49" t="n">
+        <v>48.0</v>
       </c>
       <c r="B49" t="n">
-        <v>48.0</v>
+        <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n">
         <v>0.0</v>
@@ -2717,19 +3562,19 @@
         <v>0.0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I49" t="n">
         <v>1.0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K49" t="n">
         <v>0.0</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M49" t="n">
         <v>0.0</v>
@@ -2743,13 +3588,34 @@
       <c r="P49" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>63</v>
+      <c r="A50" t="n">
+        <v>49.0</v>
       </c>
       <c r="B50" t="n">
-        <v>49.0</v>
+        <v>0.0</v>
       </c>
       <c r="C50" t="n">
         <v>0.0</v>
@@ -2782,45 +3648,66 @@
         <v>0.0</v>
       </c>
       <c r="M50" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N50" t="n">
         <v>0.0</v>
       </c>
       <c r="O50" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P50" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" t="s">
-        <v>64</v>
+      <c r="A51" t="n">
+        <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>50.0</v>
+        <v>1.0</v>
       </c>
       <c r="C51" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D51" t="n">
         <v>0.0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F51" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H51" t="n">
         <v>1.0</v>
       </c>
       <c r="I51" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J51" t="n">
         <v>0.0</v>
@@ -2843,13 +3730,34 @@
       <c r="P51" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" t="s">
-        <v>65</v>
+      <c r="A52" t="n">
+        <v>51.0</v>
       </c>
       <c r="B52" t="n">
-        <v>51.0</v>
+        <v>0.0</v>
       </c>
       <c r="C52" t="n">
         <v>0.0</v>
@@ -2888,18 +3796,39 @@
         <v>0.0</v>
       </c>
       <c r="O52" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P52" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" t="s">
-        <v>66</v>
+      <c r="A53" t="n">
+        <v>52.0</v>
       </c>
       <c r="B53" t="n">
-        <v>52.0</v>
+        <v>0.0</v>
       </c>
       <c r="C53" t="n">
         <v>0.0</v>
@@ -2914,13 +3843,13 @@
         <v>0.0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H53" t="n">
         <v>1.0</v>
       </c>
       <c r="I53" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J53" t="n">
         <v>0.0</v>
@@ -2943,13 +3872,34 @@
       <c r="P53" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" t="s">
-        <v>67</v>
+      <c r="A54" t="n">
+        <v>53.0</v>
       </c>
       <c r="B54" t="n">
-        <v>53.0</v>
+        <v>0.0</v>
       </c>
       <c r="C54" t="n">
         <v>0.0</v>
@@ -2979,7 +3929,7 @@
         <v>0.0</v>
       </c>
       <c r="L54" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M54" t="n">
         <v>0.0</v>
@@ -2988,18 +3938,39 @@
         <v>0.0</v>
       </c>
       <c r="O54" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P54" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" t="s">
-        <v>68</v>
+      <c r="A55" t="n">
+        <v>54.0</v>
       </c>
       <c r="B55" t="n">
-        <v>54.0</v>
+        <v>0.0</v>
       </c>
       <c r="C55" t="n">
         <v>0.0</v>
@@ -3029,7 +4000,7 @@
         <v>0.0</v>
       </c>
       <c r="L55" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M55" t="n">
         <v>0.0</v>
@@ -3038,18 +4009,39 @@
         <v>0.0</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P55" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" t="s">
-        <v>69</v>
+      <c r="A56" t="n">
+        <v>55.0</v>
       </c>
       <c r="B56" t="n">
-        <v>55.0</v>
+        <v>0.0</v>
       </c>
       <c r="C56" t="n">
         <v>0.0</v>
@@ -3079,7 +4071,7 @@
         <v>0.0</v>
       </c>
       <c r="L56" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M56" t="n">
         <v>0.0</v>
@@ -3088,18 +4080,39 @@
         <v>0.0</v>
       </c>
       <c r="O56" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P56" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" t="s">
-        <v>70</v>
+      <c r="A57" t="n">
+        <v>56.0</v>
       </c>
       <c r="B57" t="n">
-        <v>56.0</v>
+        <v>0.0</v>
       </c>
       <c r="C57" t="n">
         <v>0.0</v>
@@ -3129,7 +4142,7 @@
         <v>0.0</v>
       </c>
       <c r="L57" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M57" t="n">
         <v>0.0</v>
@@ -3138,18 +4151,39 @@
         <v>0.0</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P57" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" t="s">
-        <v>71</v>
+      <c r="A58" t="n">
+        <v>57.0</v>
       </c>
       <c r="B58" t="n">
-        <v>57.0</v>
+        <v>0.0</v>
       </c>
       <c r="C58" t="n">
         <v>0.0</v>
@@ -3164,13 +4198,13 @@
         <v>0.0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H58" t="n">
         <v>1.0</v>
       </c>
       <c r="I58" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J58" t="n">
         <v>0.0</v>
@@ -3193,16 +4227,37 @@
       <c r="P58" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" t="s">
-        <v>72</v>
+      <c r="A59" t="n">
+        <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>58.0</v>
+        <v>0.0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D59" t="n">
         <v>1.0</v>
@@ -3211,16 +4266,16 @@
         <v>1.0</v>
       </c>
       <c r="F59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G59" t="n">
         <v>0.0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J59" t="n">
         <v>0.0</v>
@@ -3232,24 +4287,45 @@
         <v>0.0</v>
       </c>
       <c r="M59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N59" t="n">
         <v>0.0</v>
       </c>
       <c r="O59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P59" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" t="s">
-        <v>73</v>
+      <c r="A60" t="n">
+        <v>59.0</v>
       </c>
       <c r="B60" t="n">
-        <v>59.0</v>
+        <v>0.0</v>
       </c>
       <c r="C60" t="n">
         <v>0.0</v>
@@ -3279,7 +4355,7 @@
         <v>0.0</v>
       </c>
       <c r="L60" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M60" t="n">
         <v>0.0</v>
@@ -3288,18 +4364,39 @@
         <v>0.0</v>
       </c>
       <c r="O60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P60" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" t="s">
-        <v>74</v>
+      <c r="A61" t="n">
+        <v>60.0</v>
       </c>
       <c r="B61" t="n">
-        <v>60.0</v>
+        <v>0.0</v>
       </c>
       <c r="C61" t="n">
         <v>0.0</v>
@@ -3329,7 +4426,7 @@
         <v>0.0</v>
       </c>
       <c r="L61" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M61" t="n">
         <v>0.0</v>
@@ -3338,18 +4435,39 @@
         <v>0.0</v>
       </c>
       <c r="O61" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P61" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" t="s">
-        <v>75</v>
+      <c r="A62" t="n">
+        <v>61.0</v>
       </c>
       <c r="B62" t="n">
-        <v>61.0</v>
+        <v>0.0</v>
       </c>
       <c r="C62" t="n">
         <v>0.0</v>
@@ -3385,7 +4503,7 @@
         <v>0.0</v>
       </c>
       <c r="N62" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O62" t="n">
         <v>0.0</v>
@@ -3393,13 +4511,34 @@
       <c r="P62" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" t="s">
-        <v>76</v>
+      <c r="A63" t="n">
+        <v>62.0</v>
       </c>
       <c r="B63" t="n">
-        <v>62.0</v>
+        <v>0.0</v>
       </c>
       <c r="C63" t="n">
         <v>0.0</v>
@@ -3429,7 +4568,7 @@
         <v>0.0</v>
       </c>
       <c r="L63" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M63" t="n">
         <v>0.0</v>
@@ -3438,18 +4577,39 @@
         <v>0.0</v>
       </c>
       <c r="O63" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P63" t="n">
         <v>0.0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" t="s">
-        <v>77</v>
+      <c r="A64" t="n">
+        <v>63.0</v>
       </c>
       <c r="B64" t="n">
-        <v>63.0</v>
+        <v>0.0</v>
       </c>
       <c r="C64" t="n">
         <v>0.0</v>
@@ -3458,10 +4618,10 @@
         <v>0.0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F64" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G64" t="n">
         <v>0.0</v>
@@ -3488,9 +4648,30 @@
         <v>0.0</v>
       </c>
       <c r="O64" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W64" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/output/patologia_previa.xlsx
+++ b/output/patologia_previa.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>doenca_ansiedade</t>
+  </si>
+  <si>
+    <t>doenca_renal_cronica</t>
   </si>
   <si>
     <t>insuf_venosa_periferica</t>
@@ -201,6 +204,9 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -270,6 +276,9 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -343,6 +352,9 @@
       <c r="W3" t="n">
         <v>0.0</v>
       </c>
+      <c r="X3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -414,6 +426,9 @@
       <c r="W4" t="n">
         <v>0.0</v>
       </c>
+      <c r="X4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -485,6 +500,9 @@
       <c r="W5" t="n">
         <v>0.0</v>
       </c>
+      <c r="X5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -556,6 +574,9 @@
       <c r="W6" t="n">
         <v>0.0</v>
       </c>
+      <c r="X6" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -627,6 +648,9 @@
       <c r="W7" t="n">
         <v>0.0</v>
       </c>
+      <c r="X7" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -698,6 +722,9 @@
       <c r="W8" t="n">
         <v>0.0</v>
       </c>
+      <c r="X8" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -769,6 +796,9 @@
       <c r="W9" t="n">
         <v>0.0</v>
       </c>
+      <c r="X9" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -840,6 +870,9 @@
       <c r="W10" t="n">
         <v>0.0</v>
       </c>
+      <c r="X10" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -911,6 +944,9 @@
       <c r="W11" t="n">
         <v>0.0</v>
       </c>
+      <c r="X11" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -982,6 +1018,9 @@
       <c r="W12" t="n">
         <v>0.0</v>
       </c>
+      <c r="X12" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1053,6 +1092,9 @@
       <c r="W13" t="n">
         <v>0.0</v>
       </c>
+      <c r="X13" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1124,6 +1166,9 @@
       <c r="W14" t="n">
         <v>0.0</v>
       </c>
+      <c r="X14" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1195,6 +1240,9 @@
       <c r="W15" t="n">
         <v>0.0</v>
       </c>
+      <c r="X15" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1266,6 +1314,9 @@
       <c r="W16" t="n">
         <v>0.0</v>
       </c>
+      <c r="X16" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1337,6 +1388,9 @@
       <c r="W17" t="n">
         <v>0.0</v>
       </c>
+      <c r="X17" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1408,6 +1462,9 @@
       <c r="W18" t="n">
         <v>0.0</v>
       </c>
+      <c r="X18" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1479,6 +1536,9 @@
       <c r="W19" t="n">
         <v>0.0</v>
       </c>
+      <c r="X19" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1550,6 +1610,9 @@
       <c r="W20" t="n">
         <v>0.0</v>
       </c>
+      <c r="X20" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1621,6 +1684,9 @@
       <c r="W21" t="n">
         <v>0.0</v>
       </c>
+      <c r="X21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1692,6 +1758,9 @@
       <c r="W22" t="n">
         <v>0.0</v>
       </c>
+      <c r="X22" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1755,12 +1824,15 @@
         <v>0.0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V23" t="n">
         <v>0.0</v>
       </c>
       <c r="W23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X23" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1834,6 +1906,9 @@
       <c r="W24" t="n">
         <v>0.0</v>
       </c>
+      <c r="X24" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1905,6 +1980,9 @@
       <c r="W25" t="n">
         <v>0.0</v>
       </c>
+      <c r="X25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1968,12 +2046,15 @@
         <v>0.0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X26" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2047,6 +2128,9 @@
       <c r="W27" t="n">
         <v>0.0</v>
       </c>
+      <c r="X27" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2118,6 +2202,9 @@
       <c r="W28" t="n">
         <v>0.0</v>
       </c>
+      <c r="X28" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2189,6 +2276,9 @@
       <c r="W29" t="n">
         <v>0.0</v>
       </c>
+      <c r="X29" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2260,6 +2350,9 @@
       <c r="W30" t="n">
         <v>0.0</v>
       </c>
+      <c r="X30" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2331,6 +2424,9 @@
       <c r="W31" t="n">
         <v>0.0</v>
       </c>
+      <c r="X31" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2402,6 +2498,9 @@
       <c r="W32" t="n">
         <v>0.0</v>
       </c>
+      <c r="X32" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2473,6 +2572,9 @@
       <c r="W33" t="n">
         <v>0.0</v>
       </c>
+      <c r="X33" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2544,6 +2646,9 @@
       <c r="W34" t="n">
         <v>0.0</v>
       </c>
+      <c r="X34" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2615,6 +2720,9 @@
       <c r="W35" t="n">
         <v>0.0</v>
       </c>
+      <c r="X35" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2681,9 +2789,12 @@
         <v>0.0</v>
       </c>
       <c r="V36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X36" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2752,9 +2863,12 @@
         <v>0.0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X37" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2826,6 +2940,9 @@
         <v>0.0</v>
       </c>
       <c r="W38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X38" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2894,9 +3011,12 @@
         <v>0.0</v>
       </c>
       <c r="V39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X39" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2970,6 +3090,9 @@
       <c r="W40" t="n">
         <v>0.0</v>
       </c>
+      <c r="X40" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3041,6 +3164,9 @@
       <c r="W41" t="n">
         <v>0.0</v>
       </c>
+      <c r="X41" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3112,6 +3238,9 @@
       <c r="W42" t="n">
         <v>0.0</v>
       </c>
+      <c r="X42" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3178,9 +3307,12 @@
         <v>0.0</v>
       </c>
       <c r="V43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X43" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -3254,6 +3386,9 @@
       <c r="W44" t="n">
         <v>0.0</v>
       </c>
+      <c r="X44" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3325,6 +3460,9 @@
       <c r="W45" t="n">
         <v>0.0</v>
       </c>
+      <c r="X45" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3396,6 +3534,9 @@
       <c r="W46" t="n">
         <v>0.0</v>
       </c>
+      <c r="X46" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3467,6 +3608,9 @@
       <c r="W47" t="n">
         <v>0.0</v>
       </c>
+      <c r="X47" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3538,6 +3682,9 @@
       <c r="W48" t="n">
         <v>0.0</v>
       </c>
+      <c r="X48" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3609,6 +3756,9 @@
       <c r="W49" t="n">
         <v>0.0</v>
       </c>
+      <c r="X49" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3675,9 +3825,12 @@
         <v>0.0</v>
       </c>
       <c r="V50" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X50" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -3751,6 +3904,9 @@
       <c r="W51" t="n">
         <v>0.0</v>
       </c>
+      <c r="X51" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3817,9 +3973,12 @@
         <v>0.0</v>
       </c>
       <c r="V52" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X52" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -3893,6 +4052,9 @@
       <c r="W53" t="n">
         <v>0.0</v>
       </c>
+      <c r="X53" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3964,6 +4126,9 @@
       <c r="W54" t="n">
         <v>0.0</v>
       </c>
+      <c r="X54" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4035,6 +4200,9 @@
       <c r="W55" t="n">
         <v>0.0</v>
       </c>
+      <c r="X55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4106,6 +4274,9 @@
       <c r="W56" t="n">
         <v>0.0</v>
       </c>
+      <c r="X56" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4177,6 +4348,9 @@
       <c r="W57" t="n">
         <v>0.0</v>
       </c>
+      <c r="X57" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4248,6 +4422,9 @@
       <c r="W58" t="n">
         <v>0.0</v>
       </c>
+      <c r="X58" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4314,9 +4491,12 @@
         <v>0.0</v>
       </c>
       <c r="V59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X59" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -4390,6 +4570,9 @@
       <c r="W60" t="n">
         <v>0.0</v>
       </c>
+      <c r="X60" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4461,6 +4644,9 @@
       <c r="W61" t="n">
         <v>0.0</v>
       </c>
+      <c r="X61" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4532,6 +4718,9 @@
       <c r="W62" t="n">
         <v>0.0</v>
       </c>
+      <c r="X62" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4603,6 +4792,9 @@
       <c r="W63" t="n">
         <v>0.0</v>
       </c>
+      <c r="X63" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4669,9 +4861,12 @@
         <v>0.0</v>
       </c>
       <c r="V64" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X64" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/output/patologia_previa.xlsx
+++ b/output/patologia_previa.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -80,10 +80,37 @@
     <t>insuf_venosa_periferica</t>
   </si>
   <si>
+    <t>DPCO : doenca_hepatica_alcoolica</t>
+  </si>
+  <si>
+    <t>frey_sindrome</t>
+  </si>
+  <si>
     <t>obesidade</t>
   </si>
   <si>
+    <t>asma</t>
+  </si>
+  <si>
     <t>SAOS</t>
+  </si>
+  <si>
+    <t>hipertiroidismo</t>
+  </si>
+  <si>
+    <t>hepatite_c</t>
+  </si>
+  <si>
+    <t>hiv</t>
+  </si>
+  <si>
+    <t>doenca_hepatica_alcoolica</t>
+  </si>
+  <si>
+    <t>neoplasia</t>
+  </si>
+  <si>
+    <t>insuf_renal_cronica</t>
   </si>
 </sst>
 </file>
@@ -207,6 +234,33 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -279,6 +333,33 @@
         <v>0.0</v>
       </c>
       <c r="X2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG2" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -355,6 +436,33 @@
       <c r="X3" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -429,6 +537,33 @@
       <c r="X4" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -503,6 +638,33 @@
       <c r="X5" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -577,6 +739,33 @@
       <c r="X6" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -651,6 +840,33 @@
       <c r="X7" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -725,6 +941,33 @@
       <c r="X8" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -799,6 +1042,33 @@
       <c r="X9" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -873,6 +1143,33 @@
       <c r="X10" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -947,6 +1244,33 @@
       <c r="X11" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1021,6 +1345,33 @@
       <c r="X12" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1095,6 +1446,33 @@
       <c r="X13" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1169,6 +1547,33 @@
       <c r="X14" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1243,6 +1648,33 @@
       <c r="X15" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1317,6 +1749,33 @@
       <c r="X16" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1391,6 +1850,33 @@
       <c r="X17" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1465,6 +1951,33 @@
       <c r="X18" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1539,6 +2052,33 @@
       <c r="X19" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1613,6 +2153,33 @@
       <c r="X20" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1687,6 +2254,33 @@
       <c r="X21" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1761,6 +2355,33 @@
       <c r="X22" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1835,6 +2456,33 @@
       <c r="X23" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1909,6 +2557,33 @@
       <c r="X24" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1983,6 +2658,33 @@
       <c r="X25" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2057,6 +2759,33 @@
       <c r="X26" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2131,6 +2860,33 @@
       <c r="X27" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2205,6 +2961,33 @@
       <c r="X28" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2214,7 +2997,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D29" t="n">
         <v>0.0</v>
@@ -2274,9 +3057,36 @@
         <v>0.0</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG29" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2353,6 +3163,33 @@
       <c r="X30" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2427,6 +3264,33 @@
       <c r="X31" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2501,6 +3365,33 @@
       <c r="X32" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2575,6 +3466,33 @@
       <c r="X33" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2647,6 +3565,33 @@
         <v>0.0</v>
       </c>
       <c r="X34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG34" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2723,6 +3668,33 @@
       <c r="X35" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2792,9 +3764,36 @@
         <v>0.0</v>
       </c>
       <c r="W36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG36" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2866,9 +3865,36 @@
         <v>0.0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG37" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2943,7 +3969,34 @@
         <v>0.0</v>
       </c>
       <c r="X38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -3014,9 +4067,36 @@
         <v>0.0</v>
       </c>
       <c r="W39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG39" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -3093,6 +4173,33 @@
       <c r="X40" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3167,6 +4274,33 @@
       <c r="X41" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3241,6 +4375,33 @@
       <c r="X42" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3310,9 +4471,36 @@
         <v>0.0</v>
       </c>
       <c r="W43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG43" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -3389,6 +4577,33 @@
       <c r="X44" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3463,6 +4678,33 @@
       <c r="X45" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3511,7 +4753,7 @@
         <v>0.0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q46" t="n">
         <v>0.0</v>
@@ -3535,6 +4777,33 @@
         <v>0.0</v>
       </c>
       <c r="X46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG46" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -3585,10 +4854,10 @@
         <v>0.0</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R47" t="n">
         <v>0.0</v>
@@ -3609,6 +4878,33 @@
         <v>0.0</v>
       </c>
       <c r="X47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG47" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -3617,16 +4913,16 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" t="n">
         <v>0.0</v>
       </c>
       <c r="E48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n">
         <v>0.0</v>
@@ -3635,13 +4931,13 @@
         <v>0.0</v>
       </c>
       <c r="H48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I48" t="n">
         <v>0.0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K48" t="n">
         <v>0.0</v>
@@ -3683,6 +4979,33 @@
         <v>0.0</v>
       </c>
       <c r="X48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG48" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -3694,7 +5017,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D49" t="n">
         <v>0.0</v>
@@ -3709,10 +5032,10 @@
         <v>0.0</v>
       </c>
       <c r="H49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J49" t="n">
         <v>0.0</v>
@@ -3721,7 +5044,7 @@
         <v>0.0</v>
       </c>
       <c r="L49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M49" t="n">
         <v>0.0</v>
@@ -3733,7 +5056,7 @@
         <v>0.0</v>
       </c>
       <c r="P49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q49" t="n">
         <v>0.0</v>
@@ -3757,6 +5080,33 @@
         <v>0.0</v>
       </c>
       <c r="X49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG49" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -3789,7 +5139,7 @@
         <v>0.0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K50" t="n">
         <v>0.0</v>
@@ -3810,7 +5160,7 @@
         <v>0.0</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R50" t="n">
         <v>0.0</v>
@@ -3828,10 +5178,37 @@
         <v>0.0</v>
       </c>
       <c r="W50" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X50" t="n">
         <v>0.0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
@@ -3839,7 +5216,7 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C51" t="n">
         <v>0.0</v>
@@ -3854,16 +5231,16 @@
         <v>0.0</v>
       </c>
       <c r="G51" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H51" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I51" t="n">
         <v>0.0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K51" t="n">
         <v>0.0</v>
@@ -3905,6 +5282,33 @@
         <v>0.0</v>
       </c>
       <c r="X51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG51" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -3952,7 +5356,7 @@
         <v>0.0</v>
       </c>
       <c r="O52" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P52" t="n">
         <v>0.0</v>
@@ -3976,9 +5380,36 @@
         <v>0.0</v>
       </c>
       <c r="W52" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG52" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -4002,10 +5433,10 @@
         <v>0.0</v>
       </c>
       <c r="G53" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H53" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I53" t="n">
         <v>0.0</v>
@@ -4026,7 +5457,7 @@
         <v>0.0</v>
       </c>
       <c r="O53" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P53" t="n">
         <v>0.0</v>
@@ -4053,6 +5484,33 @@
         <v>0.0</v>
       </c>
       <c r="X53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG53" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -4129,6 +5587,33 @@
       <c r="X54" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4203,6 +5688,33 @@
       <c r="X55" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4248,13 +5760,13 @@
         <v>0.0</v>
       </c>
       <c r="O56" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P56" t="n">
         <v>0.0</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R56" t="n">
         <v>0.0</v>
@@ -4275,6 +5787,33 @@
         <v>0.0</v>
       </c>
       <c r="X56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG56" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -4283,16 +5822,16 @@
         <v>56.0</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D57" t="n">
         <v>0.0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F57" t="n">
         <v>0.0</v>
@@ -4301,13 +5840,13 @@
         <v>0.0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I57" t="n">
         <v>0.0</v>
       </c>
       <c r="J57" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K57" t="n">
         <v>0.0</v>
@@ -4322,7 +5861,7 @@
         <v>0.0</v>
       </c>
       <c r="O57" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P57" t="n">
         <v>0.0</v>
@@ -4349,6 +5888,33 @@
         <v>0.0</v>
       </c>
       <c r="X57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG57" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -4360,7 +5926,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D58" t="n">
         <v>0.0</v>
@@ -4372,13 +5938,13 @@
         <v>0.0</v>
       </c>
       <c r="G58" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H58" t="n">
         <v>1.0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J58" t="n">
         <v>0.0</v>
@@ -4387,7 +5953,7 @@
         <v>0.0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M58" t="n">
         <v>0.0</v>
@@ -4423,6 +5989,33 @@
         <v>0.0</v>
       </c>
       <c r="X58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG58" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -4434,13 +6027,13 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F59" t="n">
         <v>0.0</v>
@@ -4449,7 +6042,7 @@
         <v>0.0</v>
       </c>
       <c r="H59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I59" t="n">
         <v>0.0</v>
@@ -4494,9 +6087,36 @@
         <v>0.0</v>
       </c>
       <c r="W59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG59" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -4505,7 +6125,7 @@
         <v>59.0</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C60" t="n">
         <v>0.0</v>
@@ -4514,16 +6134,16 @@
         <v>0.0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F60" t="n">
         <v>0.0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I60" t="n">
         <v>0.0</v>
@@ -4544,7 +6164,7 @@
         <v>0.0</v>
       </c>
       <c r="O60" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P60" t="n">
         <v>0.0</v>
@@ -4571,6 +6191,33 @@
         <v>0.0</v>
       </c>
       <c r="X60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG60" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -4618,7 +6265,7 @@
         <v>0.0</v>
       </c>
       <c r="O61" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P61" t="n">
         <v>0.0</v>
@@ -4645,6 +6292,33 @@
         <v>0.0</v>
       </c>
       <c r="X61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG61" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -4668,10 +6342,10 @@
         <v>0.0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I62" t="n">
         <v>0.0</v>
@@ -4701,7 +6375,7 @@
         <v>0.0</v>
       </c>
       <c r="R62" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S62" t="n">
         <v>0.0</v>
@@ -4719,6 +6393,33 @@
         <v>0.0</v>
       </c>
       <c r="X62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG62" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -4795,6 +6496,33 @@
       <c r="X63" t="n">
         <v>0.0</v>
       </c>
+      <c r="Y63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4810,7 +6538,7 @@
         <v>0.0</v>
       </c>
       <c r="E64" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F64" t="n">
         <v>0.0</v>
@@ -4840,7 +6568,7 @@
         <v>0.0</v>
       </c>
       <c r="O64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P64" t="n">
         <v>0.0</v>
@@ -4864,10 +6592,946 @@
         <v>0.0</v>
       </c>
       <c r="W64" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X64" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/output/patologia_previa.xlsx
+++ b/output/patologia_previa.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -112,6 +112,21 @@
   <si>
     <t>insuf_renal_cronica</t>
   </si>
+  <si>
+    <t>bloq_ramo_esquerdo</t>
+  </si>
+  <si>
+    <t>avc</t>
+  </si>
+  <si>
+    <t>historia_pacemaker_insitu</t>
+  </si>
+  <si>
+    <t>hiperuricemia</t>
+  </si>
+  <si>
+    <t>pneumoconiose</t>
+  </si>
 </sst>
 </file>
 
@@ -261,6 +276,21 @@
       <c r="AG1" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -360,6 +390,21 @@
         <v>0.0</v>
       </c>
       <c r="AG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL2" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -463,6 +508,21 @@
       <c r="AG3" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -564,6 +624,21 @@
       <c r="AG4" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -665,6 +740,21 @@
       <c r="AG5" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -766,6 +856,21 @@
       <c r="AG6" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -867,6 +972,21 @@
       <c r="AG7" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -968,6 +1088,21 @@
       <c r="AG8" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1069,6 +1204,21 @@
       <c r="AG9" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1170,6 +1320,21 @@
       <c r="AG10" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1271,6 +1436,21 @@
       <c r="AG11" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1372,6 +1552,21 @@
       <c r="AG12" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1473,6 +1668,21 @@
       <c r="AG13" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1574,6 +1784,21 @@
       <c r="AG14" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1675,6 +1900,21 @@
       <c r="AG15" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1776,6 +2016,21 @@
       <c r="AG16" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1877,6 +2132,21 @@
       <c r="AG17" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1978,6 +2248,21 @@
       <c r="AG18" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2079,6 +2364,21 @@
       <c r="AG19" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2180,6 +2480,21 @@
       <c r="AG20" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2281,6 +2596,21 @@
       <c r="AG21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2382,6 +2712,21 @@
       <c r="AG22" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2483,6 +2828,21 @@
       <c r="AG23" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2584,6 +2944,21 @@
       <c r="AG24" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2685,6 +3060,21 @@
       <c r="AG25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2786,6 +3176,21 @@
       <c r="AG26" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2887,6 +3292,21 @@
       <c r="AG27" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2988,6 +3408,21 @@
       <c r="AG28" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3089,6 +3524,21 @@
       <c r="AG29" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3190,6 +3640,21 @@
       <c r="AG30" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3291,6 +3756,21 @@
       <c r="AG31" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3392,6 +3872,21 @@
       <c r="AG32" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3493,6 +3988,21 @@
       <c r="AG33" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3594,6 +4104,21 @@
       <c r="AG34" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3695,6 +4220,21 @@
       <c r="AG35" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3796,6 +4336,21 @@
       <c r="AG36" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3897,6 +4452,21 @@
       <c r="AG37" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3998,6 +4568,21 @@
       <c r="AG38" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4099,6 +4684,21 @@
       <c r="AG39" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4200,6 +4800,21 @@
       <c r="AG40" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4301,6 +4916,21 @@
       <c r="AG41" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4402,6 +5032,21 @@
       <c r="AG42" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4503,6 +5148,21 @@
       <c r="AG43" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4604,6 +5264,21 @@
       <c r="AG44" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4705,6 +5380,21 @@
       <c r="AG45" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4806,6 +5496,21 @@
       <c r="AG46" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4907,6 +5612,21 @@
       <c r="AG47" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5008,6 +5728,21 @@
       <c r="AG48" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5109,6 +5844,21 @@
       <c r="AG49" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5210,6 +5960,21 @@
       <c r="AG50" t="n">
         <v>1.0</v>
       </c>
+      <c r="AH50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5311,6 +6076,21 @@
       <c r="AG51" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5412,6 +6192,21 @@
       <c r="AG52" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5513,6 +6308,21 @@
       <c r="AG53" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5614,6 +6424,21 @@
       <c r="AG54" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5715,6 +6540,21 @@
       <c r="AG55" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5760,13 +6600,13 @@
         <v>0.0</v>
       </c>
       <c r="O56" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P56" t="n">
         <v>0.0</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R56" t="n">
         <v>0.0</v>
@@ -5814,6 +6654,21 @@
         <v>0.0</v>
       </c>
       <c r="AG56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL56" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -5822,16 +6677,16 @@
         <v>56.0</v>
       </c>
       <c r="B57" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C57" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D57" t="n">
         <v>0.0</v>
       </c>
       <c r="E57" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F57" t="n">
         <v>0.0</v>
@@ -5840,13 +6695,13 @@
         <v>0.0</v>
       </c>
       <c r="H57" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I57" t="n">
         <v>0.0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K57" t="n">
         <v>0.0</v>
@@ -5915,6 +6770,21 @@
         <v>0.0</v>
       </c>
       <c r="AG57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL57" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -5926,7 +6796,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D58" t="n">
         <v>0.0</v>
@@ -5941,19 +6811,19 @@
         <v>0.0</v>
       </c>
       <c r="H58" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I58" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J58" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K58" t="n">
         <v>0.0</v>
       </c>
       <c r="L58" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M58" t="n">
         <v>0.0</v>
@@ -6016,6 +6886,21 @@
         <v>0.0</v>
       </c>
       <c r="AG58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL58" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -6069,7 +6954,7 @@
         <v>0.0</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R59" t="n">
         <v>0.0</v>
@@ -6078,7 +6963,7 @@
         <v>0.0</v>
       </c>
       <c r="T59" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U59" t="n">
         <v>0.0</v>
@@ -6093,7 +6978,7 @@
         <v>0.0</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z59" t="n">
         <v>0.0</v>
@@ -6117,6 +7002,21 @@
         <v>0.0</v>
       </c>
       <c r="AG59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL59" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -6125,22 +7025,22 @@
         <v>59.0</v>
       </c>
       <c r="B60" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D60" t="n">
         <v>0.0</v>
       </c>
       <c r="E60" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F60" t="n">
         <v>0.0</v>
       </c>
       <c r="G60" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H60" t="n">
         <v>1.0</v>
@@ -6149,7 +7049,7 @@
         <v>0.0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K60" t="n">
         <v>0.0</v>
@@ -6170,7 +7070,7 @@
         <v>0.0</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R60" t="n">
         <v>0.0</v>
@@ -6218,6 +7118,21 @@
         <v>0.0</v>
       </c>
       <c r="AG60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL60" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -6265,7 +7180,7 @@
         <v>0.0</v>
       </c>
       <c r="O61" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P61" t="n">
         <v>0.0</v>
@@ -6295,7 +7210,7 @@
         <v>0.0</v>
       </c>
       <c r="Y61" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z61" t="n">
         <v>0.0</v>
@@ -6319,6 +7234,21 @@
         <v>0.0</v>
       </c>
       <c r="AG61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL61" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -6336,22 +7266,22 @@
         <v>0.0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F62" t="n">
         <v>0.0</v>
       </c>
       <c r="G62" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H62" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I62" t="n">
         <v>0.0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K62" t="n">
         <v>0.0</v>
@@ -6372,7 +7302,7 @@
         <v>0.0</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R62" t="n">
         <v>0.0</v>
@@ -6396,7 +7326,7 @@
         <v>0.0</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z62" t="n">
         <v>0.0</v>
@@ -6420,6 +7350,21 @@
         <v>0.0</v>
       </c>
       <c r="AG62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL62" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -6523,6 +7468,21 @@
       <c r="AG63" t="n">
         <v>0.0</v>
       </c>
+      <c r="AH63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6562,13 +7522,13 @@
         <v>0.0</v>
       </c>
       <c r="M64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N64" t="n">
         <v>0.0</v>
       </c>
       <c r="O64" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P64" t="n">
         <v>0.0</v>
@@ -6622,6 +7582,21 @@
         <v>0.0</v>
       </c>
       <c r="AG64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL64" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -6669,7 +7644,7 @@
         <v>0.0</v>
       </c>
       <c r="O65" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P65" t="n">
         <v>0.0</v>
@@ -6724,6 +7699,21 @@
       </c>
       <c r="AG65" t="n">
         <v>0.0</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="66">
@@ -6755,7 +7745,7 @@
         <v>0.0</v>
       </c>
       <c r="J66" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K66" t="n">
         <v>0.0</v>
@@ -6770,7 +7760,7 @@
         <v>0.0</v>
       </c>
       <c r="O66" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P66" t="n">
         <v>0.0</v>
@@ -6824,6 +7814,21 @@
         <v>0.0</v>
       </c>
       <c r="AG66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL66" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -6847,16 +7852,16 @@
         <v>0.0</v>
       </c>
       <c r="G67" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H67" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I67" t="n">
         <v>0.0</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K67" t="n">
         <v>0.0</v>
@@ -6877,7 +7882,7 @@
         <v>0.0</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R67" t="n">
         <v>0.0</v>
@@ -6925,6 +7930,21 @@
         <v>0.0</v>
       </c>
       <c r="AG67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL67" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -6936,13 +7956,13 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F68" t="n">
         <v>0.0</v>
@@ -6951,13 +7971,13 @@
         <v>0.0</v>
       </c>
       <c r="H68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I68" t="n">
         <v>0.0</v>
       </c>
       <c r="J68" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K68" t="n">
         <v>0.0</v>
@@ -6978,7 +7998,7 @@
         <v>0.0</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R68" t="n">
         <v>0.0</v>
@@ -7002,7 +8022,7 @@
         <v>0.0</v>
       </c>
       <c r="Y68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z68" t="n">
         <v>0.0</v>
@@ -7026,6 +8046,21 @@
         <v>0.0</v>
       </c>
       <c r="AG68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL68" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7073,10 +8108,10 @@
         <v>0.0</v>
       </c>
       <c r="O69" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P69" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q69" t="n">
         <v>0.0</v>
@@ -7127,6 +8162,21 @@
         <v>0.0</v>
       </c>
       <c r="AG69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL69" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7174,10 +8224,10 @@
         <v>0.0</v>
       </c>
       <c r="O70" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P70" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q70" t="n">
         <v>0.0</v>
@@ -7207,7 +8257,7 @@
         <v>0.0</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA70" t="n">
         <v>0.0</v>
@@ -7228,6 +8278,21 @@
         <v>0.0</v>
       </c>
       <c r="AG70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL70" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7275,7 +8340,7 @@
         <v>0.0</v>
       </c>
       <c r="O71" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P71" t="n">
         <v>0.0</v>
@@ -7284,7 +8349,7 @@
         <v>0.0</v>
       </c>
       <c r="R71" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S71" t="n">
         <v>0.0</v>
@@ -7329,6 +8394,21 @@
         <v>0.0</v>
       </c>
       <c r="AG71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL71" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7376,13 +8456,13 @@
         <v>0.0</v>
       </c>
       <c r="O72" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P72" t="n">
         <v>0.0</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R72" t="n">
         <v>0.0</v>
@@ -7430,6 +8510,21 @@
         <v>0.0</v>
       </c>
       <c r="AG72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL72" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7438,10 +8533,10 @@
         <v>72.0</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D73" t="n">
         <v>0.0</v>
@@ -7456,13 +8551,13 @@
         <v>0.0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I73" t="n">
         <v>0.0</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K73" t="n">
         <v>0.0</v>
@@ -7507,13 +8602,13 @@
         <v>0.0</v>
       </c>
       <c r="Y73" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z73" t="n">
         <v>0.0</v>
       </c>
       <c r="AA73" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB73" t="n">
         <v>0.0</v>
@@ -7531,6 +8626,1877 @@
         <v>0.0</v>
       </c>
       <c r="AG73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL89" t="n">
         <v>0.0</v>
       </c>
     </row>
